--- a/recode.xlsx
+++ b/recode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuuki/Development/unipaAcademicCreditScraping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuuki/Development/unipa-academic-credit-scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A725E965-C157-8245-86DF-99C60B051F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9210901-5475-414D-A2DE-D5BF223FF023}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履修済み一覧" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <definedName name="results" localSheetId="0">履修済み一覧!#REF!</definedName>
     <definedName name="results" localSheetId="1">履修予定一覧!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>科目名</t>
   </si>
@@ -69,9 +69,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>獲得単位</t>
-  </si>
-  <si>
     <t>任意</t>
   </si>
   <si>
@@ -106,6 +103,23 @@
   </si>
   <si>
     <t>GPA</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録単位</t>
+    <rPh sb="0" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -214,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +276,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +640,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -694,19 +723,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="8.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,11 +757,14 @@
       <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -753,12 +788,16 @@
         <f>SUMIF(履修済み一覧!$D:$D,"D",履修済み一覧!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="3">
-        <f>SUM(B2:F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G2" s="4">
+        <f>SUMIF(履修済み一覧!$D:$D,"-",履修済み一覧!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUM(B2:G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -772,15 +811,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>8</v>
@@ -798,29 +838,31 @@
         <f>SUM(B5:E5)</f>
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
-        <f>SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, B$4) - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, B$4, 履修済み一覧!$D:$D, "D") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, B$4, 履修済み一覧!$D:$D, "")</f>
+        <f>SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, B$4) - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, B$4, 履修済み一覧!$D:$D, "D") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, B$4, 履修済み一覧!$D:$D, "-") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, B$4, 履修済み一覧!$D:$D, "")</f>
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <f>SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, C$4) - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, C$4, 履修済み一覧!$D:$D, "D") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, C$4, 履修済み一覧!$D:$D, "")</f>
+        <f>SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, C$4) - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, C$4, 履修済み一覧!$D:$D, "D") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, C$4, 履修済み一覧!$D:$D, "-") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, C$4, 履修済み一覧!$D:$D, "")</f>
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f>SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, D$4) - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, D$4, 履修済み一覧!$D:$D, "D") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, D$4, 履修済み一覧!$D:$D, "")</f>
+        <f>SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, D$4) - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, D$4, 履修済み一覧!$D:$D, "D") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, D$4, 履修済み一覧!$D:$D, "-") - SUMIFS(履修済み一覧!$C:$C, 履修済み一覧!$E:$E, D$4, 履修済み一覧!$D:$D, "")</f>
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <f>IF((B6-B5) &lt; 0, 0,(B6-B5))</f>
@@ -836,10 +878,11 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
         <f>B$6-B$7</f>
@@ -861,10 +904,11 @@
         <f>SUM(B8:E8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>IF(B5 &lt;= B8, "OK", "NG")</f>
@@ -886,20 +930,21 @@
         <f>IF(F5 &lt;= F8, "OK", "NG")</f>
         <v>NG</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B11" s="3">
         <f>SUMIFS(履修予定一覧!$C:$C, 履修予定一覧!$D:$D, B$4)</f>
@@ -915,10 +960,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <f>B8+B11</f>
@@ -934,10 +980,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <f>IF((B12-B5) &lt; 0, 0,(B12-B5))</f>
@@ -953,10 +1000,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
         <f>B12-B13</f>
@@ -978,10 +1026,11 @@
         <f>SUM(B14:E14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>IF(B5 &lt;= B14, "OK", "NG")</f>
@@ -1003,13 +1052,14 @@
         <f>IF(F5 &lt;= F14, "OK", "NG")</f>
         <v>NG</v>
       </c>
+      <c r="G15" s="19"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="e">
-        <f>SUM(4 * B2, 3 * C2, 2 * D2, E2)/G2</f>
+        <f>SUM(4 * B2, 3 * C2, 2 * D2, E2)/H2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1018,7 +1068,7 @@
     <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B9:F9">
+  <conditionalFormatting sqref="B9:G9">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",B9)))</formula>
     </cfRule>
@@ -1026,7 +1076,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F15">
+  <conditionalFormatting sqref="B15:G15">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",B15)))</formula>
     </cfRule>
